--- a/samples/BlpData_DIF_20200529.xlsx
+++ b/samples/BlpData_DIF_20200529.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\risk_report\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{126495A5-A904-4548-A351-695743E56E46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F793FAB9-E743-4403-B0DA-29ADB455A8A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="645" windowWidth="21960" windowHeight="14850" xr2:uid="{FCEBA0AF-2C62-4C84-BADC-BD044BDB565B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCEBA0AF-2C62-4C84-BADC-BD044BDB565B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="264">
   <si>
     <t>ID</t>
   </si>
@@ -822,6 +822,9 @@
   </si>
   <si>
     <t>USY7140WAG34</t>
+  </si>
+  <si>
+    <t>SFC_AUTHORIZED_FUND</t>
   </si>
 </sst>
 </file>
@@ -1173,15 +1176,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935DCEFE-554D-4422-A02F-91CBB9D59624}">
-  <dimension ref="A1:L178"/>
+  <dimension ref="A1:M178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1210,16 +1213,19 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>263</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1248,16 +1254,19 @@
         <v>18</v>
       </c>
       <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1286,16 +1295,19 @@
         <v>18</v>
       </c>
       <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1324,16 +1336,19 @@
         <v>18</v>
       </c>
       <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>20</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1362,16 +1377,19 @@
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
         <v>29</v>
       </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1400,7 +1418,7 @@
         <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
         <v>35</v>
@@ -1408,8 +1426,11 @@
       <c r="L6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1438,16 +1459,19 @@
         <v>18</v>
       </c>
       <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
         <v>37</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1476,16 +1500,19 @@
         <v>18</v>
       </c>
       <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
         <v>21</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>39</v>
       </c>
-      <c r="L8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1514,16 +1541,19 @@
         <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
         <v>25</v>
       </c>
       <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1552,7 +1582,7 @@
         <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
         <v>25</v>
@@ -1560,8 +1590,11 @@
       <c r="L10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1590,16 +1623,19 @@
         <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
         <v>25</v>
       </c>
       <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1628,16 +1664,19 @@
         <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
         <v>46</v>
       </c>
-      <c r="L12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1666,16 +1705,19 @@
         <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
         <v>39</v>
       </c>
-      <c r="L13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1704,7 +1746,7 @@
         <v>34</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="K14" t="s">
         <v>35</v>
@@ -1712,8 +1754,11 @@
       <c r="L14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1742,16 +1787,19 @@
         <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
         <v>51</v>
       </c>
-      <c r="L15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -1780,16 +1828,19 @@
         <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" t="s">
         <v>54</v>
       </c>
-      <c r="L16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1818,16 +1869,19 @@
         <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K17" t="s">
         <v>25</v>
       </c>
       <c r="L17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -1856,16 +1910,19 @@
         <v>18</v>
       </c>
       <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s">
         <v>19</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>20</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1894,16 +1951,19 @@
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" t="s">
         <v>39</v>
       </c>
-      <c r="L19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1932,16 +1992,19 @@
         <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" t="s">
         <v>29</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -1970,16 +2033,19 @@
         <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" t="s">
         <v>63</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -2008,7 +2074,7 @@
         <v>34</v>
       </c>
       <c r="J22" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K22" t="s">
         <v>35</v>
@@ -2016,8 +2082,11 @@
       <c r="L22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2046,16 +2115,19 @@
         <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K23" t="s">
         <v>25</v>
       </c>
       <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -2084,16 +2156,19 @@
         <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" t="s">
         <v>69</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -2122,16 +2197,19 @@
         <v>18</v>
       </c>
       <c r="J25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" t="s">
         <v>71</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>39</v>
       </c>
-      <c r="L25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -2160,7 +2238,7 @@
         <v>34</v>
       </c>
       <c r="J26" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K26" t="s">
         <v>35</v>
@@ -2168,8 +2246,11 @@
       <c r="L26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -2198,16 +2279,19 @@
         <v>18</v>
       </c>
       <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" t="s">
         <v>37</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>46</v>
       </c>
-      <c r="L27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -2236,16 +2320,19 @@
         <v>18</v>
       </c>
       <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" t="s">
         <v>71</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>54</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -2274,16 +2361,19 @@
         <v>18</v>
       </c>
       <c r="J29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" t="s">
         <v>37</v>
       </c>
-      <c r="K29" t="s">
-        <v>25</v>
-      </c>
       <c r="L29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -2312,16 +2402,19 @@
         <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K30" t="s">
         <v>25</v>
       </c>
       <c r="L30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -2350,16 +2443,19 @@
         <v>18</v>
       </c>
       <c r="J31" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" t="s">
         <v>81</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -2388,16 +2484,19 @@
         <v>18</v>
       </c>
       <c r="J32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" t="s">
         <v>19</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>20</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -2426,16 +2525,19 @@
         <v>18</v>
       </c>
       <c r="J33" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" t="s">
         <v>29</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -2464,16 +2566,19 @@
         <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K34" t="s">
         <v>25</v>
       </c>
       <c r="L34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -2502,16 +2607,19 @@
         <v>18</v>
       </c>
       <c r="J35" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" t="s">
         <v>61</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>54</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -2540,16 +2648,19 @@
         <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K36" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" t="s">
         <v>51</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>89</v>
       </c>
@@ -2578,16 +2689,19 @@
         <v>18</v>
       </c>
       <c r="J37" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" t="s">
         <v>24</v>
       </c>
-      <c r="L37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -2616,16 +2730,19 @@
         <v>18</v>
       </c>
       <c r="J38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" t="s">
         <v>19</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>51</v>
       </c>
-      <c r="L38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -2654,16 +2771,19 @@
         <v>18</v>
       </c>
       <c r="J39" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" t="s">
         <v>63</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -2692,16 +2812,19 @@
         <v>18</v>
       </c>
       <c r="J40" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K40" t="s">
         <v>25</v>
       </c>
       <c r="L40" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -2730,16 +2853,19 @@
         <v>18</v>
       </c>
       <c r="J41" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K41" t="s">
         <v>25</v>
       </c>
       <c r="L41" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -2768,16 +2894,19 @@
         <v>18</v>
       </c>
       <c r="J42" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" t="s">
         <v>23</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>46</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>95</v>
       </c>
@@ -2806,16 +2935,19 @@
         <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K43" t="s">
         <v>25</v>
       </c>
       <c r="L43" t="s">
+        <v>25</v>
+      </c>
+      <c r="M43" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -2844,7 +2976,7 @@
         <v>34</v>
       </c>
       <c r="J44" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K44" t="s">
         <v>35</v>
@@ -2852,8 +2984,11 @@
       <c r="L44" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>98</v>
       </c>
@@ -2882,16 +3017,19 @@
         <v>18</v>
       </c>
       <c r="J45" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" t="s">
         <v>19</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>20</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -2920,16 +3058,19 @@
         <v>18</v>
       </c>
       <c r="J46" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" t="s">
         <v>56</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>39</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>102</v>
       </c>
@@ -2958,16 +3099,19 @@
         <v>18</v>
       </c>
       <c r="J47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" t="s">
         <v>19</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>24</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -2996,16 +3140,19 @@
         <v>104</v>
       </c>
       <c r="J48" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K48" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" t="s">
         <v>39</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -3034,16 +3181,19 @@
         <v>18</v>
       </c>
       <c r="J49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" t="s">
         <v>71</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>106</v>
       </c>
-      <c r="L49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -3072,16 +3222,19 @@
         <v>18</v>
       </c>
       <c r="J50" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K50" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" t="s">
         <v>24</v>
       </c>
-      <c r="L50" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>108</v>
       </c>
@@ -3110,7 +3263,7 @@
         <v>34</v>
       </c>
       <c r="J51" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K51" t="s">
         <v>35</v>
@@ -3118,8 +3271,11 @@
       <c r="L51" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -3148,16 +3304,19 @@
         <v>18</v>
       </c>
       <c r="J52" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" t="s">
         <v>56</v>
       </c>
-      <c r="K52" t="s">
-        <v>25</v>
-      </c>
       <c r="L52" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -3186,16 +3345,19 @@
         <v>18</v>
       </c>
       <c r="J53" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K53" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" t="s">
         <v>51</v>
       </c>
-      <c r="L53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>111</v>
       </c>
@@ -3224,16 +3386,19 @@
         <v>18</v>
       </c>
       <c r="J54" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K54" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" t="s">
         <v>24</v>
       </c>
-      <c r="L54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>112</v>
       </c>
@@ -3262,16 +3427,19 @@
         <v>18</v>
       </c>
       <c r="J55" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" t="s">
         <v>19</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>20</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>113</v>
       </c>
@@ -3300,7 +3468,7 @@
         <v>18</v>
       </c>
       <c r="J56" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K56" t="s">
         <v>25</v>
@@ -3308,8 +3476,11 @@
       <c r="L56" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>115</v>
       </c>
@@ -3338,16 +3509,19 @@
         <v>18</v>
       </c>
       <c r="J57" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K57" t="s">
+        <v>25</v>
+      </c>
+      <c r="L57" t="s">
         <v>29</v>
       </c>
-      <c r="L57" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -3376,16 +3550,19 @@
         <v>18</v>
       </c>
       <c r="J58" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" t="s">
         <v>117</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>118</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -3414,16 +3591,19 @@
         <v>18</v>
       </c>
       <c r="J59" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" t="s">
         <v>88</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>69</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>121</v>
       </c>
@@ -3452,16 +3632,19 @@
         <v>18</v>
       </c>
       <c r="J60" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" t="s">
         <v>19</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>20</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>122</v>
       </c>
@@ -3490,16 +3673,19 @@
         <v>18</v>
       </c>
       <c r="J61" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K61" t="s">
         <v>25</v>
       </c>
       <c r="L61" t="s">
+        <v>25</v>
+      </c>
+      <c r="M61" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -3528,16 +3714,19 @@
         <v>18</v>
       </c>
       <c r="J62" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" t="s">
         <v>56</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>20</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>124</v>
       </c>
@@ -3566,16 +3755,19 @@
         <v>18</v>
       </c>
       <c r="J63" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K63" t="s">
+        <v>25</v>
+      </c>
+      <c r="L63" t="s">
         <v>54</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>125</v>
       </c>
@@ -3604,16 +3796,19 @@
         <v>18</v>
       </c>
       <c r="J64" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K64" t="s">
+        <v>25</v>
+      </c>
+      <c r="L64" t="s">
         <v>46</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -3642,16 +3837,19 @@
         <v>18</v>
       </c>
       <c r="J65" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K65" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" t="s">
         <v>51</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>127</v>
       </c>
@@ -3680,7 +3878,7 @@
         <v>34</v>
       </c>
       <c r="J66" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K66" t="s">
         <v>35</v>
@@ -3688,8 +3886,11 @@
       <c r="L66" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -3718,7 +3919,7 @@
         <v>34</v>
       </c>
       <c r="J67" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K67" t="s">
         <v>35</v>
@@ -3726,8 +3927,11 @@
       <c r="L67" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -3756,16 +3960,19 @@
         <v>18</v>
       </c>
       <c r="J68" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" t="s">
         <v>130</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>106</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>132</v>
       </c>
@@ -3794,16 +4001,19 @@
         <v>18</v>
       </c>
       <c r="J69" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K69" t="s">
         <v>25</v>
       </c>
       <c r="L69" t="s">
+        <v>25</v>
+      </c>
+      <c r="M69" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>133</v>
       </c>
@@ -3832,16 +4042,19 @@
         <v>104</v>
       </c>
       <c r="J70" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" t="s">
         <v>88</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>69</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>134</v>
       </c>
@@ -3870,16 +4083,19 @@
         <v>18</v>
       </c>
       <c r="J71" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" t="s">
         <v>71</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>54</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>135</v>
       </c>
@@ -3908,16 +4124,19 @@
         <v>18</v>
       </c>
       <c r="J72" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" t="s">
         <v>56</v>
       </c>
-      <c r="K72" t="s">
-        <v>25</v>
-      </c>
       <c r="L72" t="s">
+        <v>25</v>
+      </c>
+      <c r="M72" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>136</v>
       </c>
@@ -3946,16 +4165,19 @@
         <v>18</v>
       </c>
       <c r="J73" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" t="s">
         <v>19</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>20</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>137</v>
       </c>
@@ -3984,7 +4206,7 @@
         <v>34</v>
       </c>
       <c r="J74" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K74" t="s">
         <v>35</v>
@@ -3992,8 +4214,11 @@
       <c r="L74" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>138</v>
       </c>
@@ -4022,16 +4247,19 @@
         <v>18</v>
       </c>
       <c r="J75" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K75" t="s">
+        <v>25</v>
+      </c>
+      <c r="L75" t="s">
         <v>51</v>
       </c>
-      <c r="L75" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>139</v>
       </c>
@@ -4060,16 +4288,19 @@
         <v>18</v>
       </c>
       <c r="J76" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" t="s">
         <v>56</v>
       </c>
-      <c r="K76" t="s">
-        <v>25</v>
-      </c>
       <c r="L76" t="s">
+        <v>25</v>
+      </c>
+      <c r="M76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>140</v>
       </c>
@@ -4098,7 +4329,7 @@
         <v>34</v>
       </c>
       <c r="J77" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K77" t="s">
         <v>35</v>
@@ -4106,8 +4337,11 @@
       <c r="L77" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>141</v>
       </c>
@@ -4136,16 +4370,19 @@
         <v>18</v>
       </c>
       <c r="J78" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" t="s">
         <v>37</v>
       </c>
-      <c r="K78" t="s">
-        <v>25</v>
-      </c>
       <c r="L78" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>142</v>
       </c>
@@ -4174,7 +4411,7 @@
         <v>18</v>
       </c>
       <c r="J79" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K79" t="s">
         <v>25</v>
@@ -4182,8 +4419,11 @@
       <c r="L79" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>143</v>
       </c>
@@ -4212,16 +4452,19 @@
         <v>18</v>
       </c>
       <c r="J80" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K80" t="s">
         <v>25</v>
       </c>
       <c r="L80" t="s">
+        <v>25</v>
+      </c>
+      <c r="M80" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>144</v>
       </c>
@@ -4250,16 +4493,19 @@
         <v>18</v>
       </c>
       <c r="J81" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K81" t="s">
         <v>25</v>
       </c>
       <c r="L81" t="s">
+        <v>25</v>
+      </c>
+      <c r="M81" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>145</v>
       </c>
@@ -4288,16 +4534,19 @@
         <v>18</v>
       </c>
       <c r="J82" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K82" t="s">
+        <v>25</v>
+      </c>
+      <c r="L82" t="s">
         <v>106</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>146</v>
       </c>
@@ -4326,16 +4575,19 @@
         <v>18</v>
       </c>
       <c r="J83" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K83" t="s">
+        <v>25</v>
+      </c>
+      <c r="L83" t="s">
         <v>20</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>147</v>
       </c>
@@ -4364,16 +4616,19 @@
         <v>18</v>
       </c>
       <c r="J84" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" t="s">
         <v>37</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>24</v>
       </c>
-      <c r="L84" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>148</v>
       </c>
@@ -4402,16 +4657,19 @@
         <v>18</v>
       </c>
       <c r="J85" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K85" t="s">
         <v>25</v>
       </c>
       <c r="L85" t="s">
+        <v>25</v>
+      </c>
+      <c r="M85" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>149</v>
       </c>
@@ -4440,16 +4698,19 @@
         <v>18</v>
       </c>
       <c r="J86" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" t="s">
         <v>42</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>151</v>
       </c>
-      <c r="L86" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>152</v>
       </c>
@@ -4478,16 +4739,19 @@
         <v>18</v>
       </c>
       <c r="J87" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" t="s">
         <v>117</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>81</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>154</v>
       </c>
@@ -4516,16 +4780,19 @@
         <v>18</v>
       </c>
       <c r="J88" t="s">
+        <v>18</v>
+      </c>
+      <c r="K88" t="s">
         <v>37</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>24</v>
       </c>
-      <c r="L88" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>155</v>
       </c>
@@ -4554,16 +4821,19 @@
         <v>18</v>
       </c>
       <c r="J89" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" t="s">
         <v>56</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>51</v>
       </c>
-      <c r="L89" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>156</v>
       </c>
@@ -4592,7 +4862,7 @@
         <v>34</v>
       </c>
       <c r="J90" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K90" t="s">
         <v>35</v>
@@ -4600,8 +4870,11 @@
       <c r="L90" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>157</v>
       </c>
@@ -4630,16 +4903,19 @@
         <v>18</v>
       </c>
       <c r="J91" t="s">
+        <v>18</v>
+      </c>
+      <c r="K91" t="s">
         <v>37</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>24</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>158</v>
       </c>
@@ -4668,16 +4944,19 @@
         <v>18</v>
       </c>
       <c r="J92" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" t="s">
         <v>23</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
         <v>24</v>
       </c>
-      <c r="L92" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>159</v>
       </c>
@@ -4706,16 +4985,19 @@
         <v>18</v>
       </c>
       <c r="J93" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K93" t="s">
+        <v>25</v>
+      </c>
+      <c r="L93" t="s">
         <v>106</v>
       </c>
-      <c r="L93" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>160</v>
       </c>
@@ -4744,16 +5026,19 @@
         <v>18</v>
       </c>
       <c r="J94" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K94" t="s">
         <v>25</v>
       </c>
       <c r="L94" t="s">
+        <v>25</v>
+      </c>
+      <c r="M94" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>161</v>
       </c>
@@ -4782,16 +5067,19 @@
         <v>18</v>
       </c>
       <c r="J95" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K95" t="s">
+        <v>25</v>
+      </c>
+      <c r="L95" t="s">
         <v>24</v>
       </c>
-      <c r="L95" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>162</v>
       </c>
@@ -4820,16 +5108,19 @@
         <v>18</v>
       </c>
       <c r="J96" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" t="s">
         <v>19</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>51</v>
       </c>
-      <c r="L96" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>163</v>
       </c>
@@ -4858,16 +5149,19 @@
         <v>18</v>
       </c>
       <c r="J97" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K97" t="s">
+        <v>25</v>
+      </c>
+      <c r="L97" t="s">
         <v>106</v>
       </c>
-      <c r="L97" t="s">
+      <c r="M97" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>164</v>
       </c>
@@ -4896,16 +5190,19 @@
         <v>18</v>
       </c>
       <c r="J98" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K98" t="s">
         <v>25</v>
       </c>
       <c r="L98" t="s">
+        <v>25</v>
+      </c>
+      <c r="M98" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>165</v>
       </c>
@@ -4934,16 +5231,19 @@
         <v>18</v>
       </c>
       <c r="J99" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K99" t="s">
         <v>25</v>
       </c>
       <c r="L99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M99" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>166</v>
       </c>
@@ -4972,16 +5272,19 @@
         <v>18</v>
       </c>
       <c r="J100" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K100" t="s">
         <v>25</v>
       </c>
       <c r="L100" t="s">
+        <v>25</v>
+      </c>
+      <c r="M100" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>168</v>
       </c>
@@ -5010,7 +5313,7 @@
         <v>34</v>
       </c>
       <c r="J101" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K101" t="s">
         <v>35</v>
@@ -5018,8 +5321,11 @@
       <c r="L101" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>169</v>
       </c>
@@ -5048,16 +5354,19 @@
         <v>18</v>
       </c>
       <c r="J102" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" t="s">
         <v>42</v>
       </c>
-      <c r="K102" t="s">
+      <c r="L102" t="s">
         <v>81</v>
       </c>
-      <c r="L102" t="s">
+      <c r="M102" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>172</v>
       </c>
@@ -5086,16 +5395,19 @@
         <v>18</v>
       </c>
       <c r="J103" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K103" t="s">
+        <v>25</v>
+      </c>
+      <c r="L103" t="s">
         <v>24</v>
       </c>
-      <c r="L103" t="s">
+      <c r="M103" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>173</v>
       </c>
@@ -5124,16 +5436,19 @@
         <v>18</v>
       </c>
       <c r="J104" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K104" t="s">
+        <v>25</v>
+      </c>
+      <c r="L104" t="s">
         <v>51</v>
       </c>
-      <c r="L104" t="s">
+      <c r="M104" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>174</v>
       </c>
@@ -5162,16 +5477,19 @@
         <v>18</v>
       </c>
       <c r="J105" t="s">
+        <v>18</v>
+      </c>
+      <c r="K105" t="s">
         <v>42</v>
       </c>
-      <c r="K105" t="s">
+      <c r="L105" t="s">
         <v>81</v>
       </c>
-      <c r="L105" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>175</v>
       </c>
@@ -5200,16 +5518,19 @@
         <v>18</v>
       </c>
       <c r="J106" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K106" t="s">
+        <v>25</v>
+      </c>
+      <c r="L106" t="s">
         <v>51</v>
       </c>
-      <c r="L106" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>176</v>
       </c>
@@ -5238,16 +5559,19 @@
         <v>18</v>
       </c>
       <c r="J107" t="s">
+        <v>18</v>
+      </c>
+      <c r="K107" t="s">
         <v>19</v>
       </c>
-      <c r="K107" t="s">
+      <c r="L107" t="s">
         <v>20</v>
       </c>
-      <c r="L107" t="s">
+      <c r="M107" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>177</v>
       </c>
@@ -5276,7 +5600,7 @@
         <v>18</v>
       </c>
       <c r="J108" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K108" t="s">
         <v>25</v>
@@ -5284,8 +5608,11 @@
       <c r="L108" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>178</v>
       </c>
@@ -5314,16 +5641,19 @@
         <v>18</v>
       </c>
       <c r="J109" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K109" t="s">
+        <v>25</v>
+      </c>
+      <c r="L109" t="s">
         <v>69</v>
       </c>
-      <c r="L109" t="s">
+      <c r="M109" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>179</v>
       </c>
@@ -5352,16 +5682,19 @@
         <v>18</v>
       </c>
       <c r="J110" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K110" t="s">
+        <v>25</v>
+      </c>
+      <c r="L110" t="s">
         <v>24</v>
       </c>
-      <c r="L110" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>180</v>
       </c>
@@ -5390,16 +5723,19 @@
         <v>18</v>
       </c>
       <c r="J111" t="s">
+        <v>18</v>
+      </c>
+      <c r="K111" t="s">
         <v>56</v>
       </c>
-      <c r="K111" t="s">
+      <c r="L111" t="s">
         <v>51</v>
       </c>
-      <c r="L111" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>181</v>
       </c>
@@ -5428,16 +5764,19 @@
         <v>18</v>
       </c>
       <c r="J112" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K112" t="s">
+        <v>25</v>
+      </c>
+      <c r="L112" t="s">
         <v>51</v>
       </c>
-      <c r="L112" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>182</v>
       </c>
@@ -5466,7 +5805,7 @@
         <v>18</v>
       </c>
       <c r="J113" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K113" t="s">
         <v>25</v>
@@ -5474,8 +5813,11 @@
       <c r="L113" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>183</v>
       </c>
@@ -5504,16 +5846,19 @@
         <v>18</v>
       </c>
       <c r="J114" t="s">
+        <v>18</v>
+      </c>
+      <c r="K114" t="s">
         <v>71</v>
       </c>
-      <c r="K114" t="s">
+      <c r="L114" t="s">
         <v>54</v>
       </c>
-      <c r="L114" t="s">
+      <c r="M114" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>184</v>
       </c>
@@ -5542,16 +5887,19 @@
         <v>18</v>
       </c>
       <c r="J115" t="s">
+        <v>18</v>
+      </c>
+      <c r="K115" t="s">
         <v>23</v>
       </c>
-      <c r="K115" t="s">
+      <c r="L115" t="s">
         <v>188</v>
       </c>
-      <c r="L115" t="s">
+      <c r="M115" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>189</v>
       </c>
@@ -5580,7 +5928,7 @@
         <v>34</v>
       </c>
       <c r="J116" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K116" t="s">
         <v>35</v>
@@ -5588,8 +5936,11 @@
       <c r="L116" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M116" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>190</v>
       </c>
@@ -5618,16 +5969,19 @@
         <v>18</v>
       </c>
       <c r="J117" t="s">
+        <v>18</v>
+      </c>
+      <c r="K117" t="s">
         <v>37</v>
       </c>
-      <c r="K117" t="s">
+      <c r="L117" t="s">
         <v>24</v>
       </c>
-      <c r="L117" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>191</v>
       </c>
@@ -5656,16 +6010,19 @@
         <v>18</v>
       </c>
       <c r="J118" t="s">
+        <v>18</v>
+      </c>
+      <c r="K118" t="s">
         <v>23</v>
       </c>
-      <c r="K118" t="s">
+      <c r="L118" t="s">
         <v>24</v>
       </c>
-      <c r="L118" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>192</v>
       </c>
@@ -5694,16 +6051,19 @@
         <v>18</v>
       </c>
       <c r="J119" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K119" t="s">
         <v>25</v>
       </c>
       <c r="L119" t="s">
+        <v>25</v>
+      </c>
+      <c r="M119" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>193</v>
       </c>
@@ -5732,7 +6092,7 @@
         <v>34</v>
       </c>
       <c r="J120" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K120" t="s">
         <v>35</v>
@@ -5740,8 +6100,11 @@
       <c r="L120" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M120" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>194</v>
       </c>
@@ -5770,16 +6133,19 @@
         <v>18</v>
       </c>
       <c r="J121" t="s">
+        <v>18</v>
+      </c>
+      <c r="K121" t="s">
         <v>117</v>
       </c>
-      <c r="K121" t="s">
+      <c r="L121" t="s">
         <v>118</v>
       </c>
-      <c r="L121" t="s">
+      <c r="M121" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>195</v>
       </c>
@@ -5808,16 +6174,19 @@
         <v>18</v>
       </c>
       <c r="J122" t="s">
+        <v>18</v>
+      </c>
+      <c r="K122" t="s">
         <v>56</v>
       </c>
-      <c r="K122" t="s">
+      <c r="L122" t="s">
         <v>20</v>
       </c>
-      <c r="L122" t="s">
+      <c r="M122" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>196</v>
       </c>
@@ -5846,16 +6215,19 @@
         <v>18</v>
       </c>
       <c r="J123" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K123" t="s">
+        <v>25</v>
+      </c>
+      <c r="L123" t="s">
         <v>106</v>
       </c>
-      <c r="L123" t="s">
+      <c r="M123" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>197</v>
       </c>
@@ -5884,16 +6256,19 @@
         <v>18</v>
       </c>
       <c r="J124" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K124" t="s">
+        <v>25</v>
+      </c>
+      <c r="L124" t="s">
         <v>20</v>
       </c>
-      <c r="L124" t="s">
+      <c r="M124" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>198</v>
       </c>
@@ -5922,16 +6297,19 @@
         <v>18</v>
       </c>
       <c r="J125" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K125" t="s">
         <v>25</v>
       </c>
       <c r="L125" t="s">
+        <v>25</v>
+      </c>
+      <c r="M125" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>199</v>
       </c>
@@ -5960,7 +6338,7 @@
         <v>34</v>
       </c>
       <c r="J126" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K126" t="s">
         <v>35</v>
@@ -5968,8 +6346,11 @@
       <c r="L126" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M126" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>200</v>
       </c>
@@ -5998,16 +6379,19 @@
         <v>18</v>
       </c>
       <c r="J127" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K127" t="s">
+        <v>25</v>
+      </c>
+      <c r="L127" t="s">
         <v>46</v>
       </c>
-      <c r="L127" t="s">
+      <c r="M127" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>201</v>
       </c>
@@ -6036,16 +6420,19 @@
         <v>18</v>
       </c>
       <c r="J128" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K128" t="s">
+        <v>25</v>
+      </c>
+      <c r="L128" t="s">
         <v>118</v>
       </c>
-      <c r="L128" t="s">
+      <c r="M128" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>203</v>
       </c>
@@ -6074,16 +6461,19 @@
         <v>18</v>
       </c>
       <c r="J129" t="s">
+        <v>18</v>
+      </c>
+      <c r="K129" t="s">
         <v>19</v>
       </c>
-      <c r="K129" t="s">
+      <c r="L129" t="s">
         <v>20</v>
       </c>
-      <c r="L129" t="s">
+      <c r="M129" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>204</v>
       </c>
@@ -6112,7 +6502,7 @@
         <v>34</v>
       </c>
       <c r="J130" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K130" t="s">
         <v>35</v>
@@ -6120,8 +6510,11 @@
       <c r="L130" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M130" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>205</v>
       </c>
@@ -6150,16 +6543,19 @@
         <v>18</v>
       </c>
       <c r="J131" t="s">
+        <v>18</v>
+      </c>
+      <c r="K131" t="s">
         <v>71</v>
       </c>
-      <c r="K131" t="s">
+      <c r="L131" t="s">
         <v>54</v>
       </c>
-      <c r="L131" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M131" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>206</v>
       </c>
@@ -6188,16 +6584,19 @@
         <v>18</v>
       </c>
       <c r="J132" t="s">
+        <v>18</v>
+      </c>
+      <c r="K132" t="s">
         <v>207</v>
       </c>
-      <c r="K132" t="s">
+      <c r="L132" t="s">
         <v>46</v>
       </c>
-      <c r="L132" t="s">
+      <c r="M132" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>209</v>
       </c>
@@ -6226,16 +6625,19 @@
         <v>18</v>
       </c>
       <c r="J133" t="s">
+        <v>18</v>
+      </c>
+      <c r="K133" t="s">
         <v>71</v>
       </c>
-      <c r="K133" t="s">
+      <c r="L133" t="s">
         <v>106</v>
       </c>
-      <c r="L133" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M133" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>210</v>
       </c>
@@ -6264,16 +6666,19 @@
         <v>18</v>
       </c>
       <c r="J134" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K134" t="s">
+        <v>25</v>
+      </c>
+      <c r="L134" t="s">
         <v>81</v>
       </c>
-      <c r="L134" t="s">
+      <c r="M134" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>211</v>
       </c>
@@ -6302,7 +6707,7 @@
         <v>34</v>
       </c>
       <c r="J135" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K135" t="s">
         <v>35</v>
@@ -6310,8 +6715,11 @@
       <c r="L135" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M135" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>212</v>
       </c>
@@ -6340,16 +6748,19 @@
         <v>18</v>
       </c>
       <c r="J136" t="s">
+        <v>18</v>
+      </c>
+      <c r="K136" t="s">
         <v>131</v>
       </c>
-      <c r="K136" t="s">
+      <c r="L136" t="s">
         <v>151</v>
       </c>
-      <c r="L136" t="s">
+      <c r="M136" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>213</v>
       </c>
@@ -6378,7 +6789,7 @@
         <v>18</v>
       </c>
       <c r="J137" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K137" t="s">
         <v>25</v>
@@ -6386,8 +6797,11 @@
       <c r="L137" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M137" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>214</v>
       </c>
@@ -6416,7 +6830,7 @@
         <v>18</v>
       </c>
       <c r="J138" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K138" t="s">
         <v>25</v>
@@ -6424,8 +6838,11 @@
       <c r="L138" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M138" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>215</v>
       </c>
@@ -6454,16 +6871,19 @@
         <v>18</v>
       </c>
       <c r="J139" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K139" t="s">
+        <v>25</v>
+      </c>
+      <c r="L139" t="s">
         <v>106</v>
       </c>
-      <c r="L139" t="s">
+      <c r="M139" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>217</v>
       </c>
@@ -6492,16 +6912,19 @@
         <v>18</v>
       </c>
       <c r="J140" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K140" t="s">
+        <v>25</v>
+      </c>
+      <c r="L140" t="s">
         <v>20</v>
       </c>
-      <c r="L140" t="s">
+      <c r="M140" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>218</v>
       </c>
@@ -6530,16 +6953,19 @@
         <v>18</v>
       </c>
       <c r="J141" t="s">
+        <v>18</v>
+      </c>
+      <c r="K141" t="s">
         <v>23</v>
       </c>
-      <c r="K141" t="s">
+      <c r="L141" t="s">
         <v>46</v>
       </c>
-      <c r="L141" t="s">
+      <c r="M141" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>219</v>
       </c>
@@ -6568,16 +6994,19 @@
         <v>18</v>
       </c>
       <c r="J142" t="s">
+        <v>18</v>
+      </c>
+      <c r="K142" t="s">
         <v>21</v>
       </c>
-      <c r="K142" t="s">
+      <c r="L142" t="s">
         <v>51</v>
       </c>
-      <c r="L142" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M142" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>220</v>
       </c>
@@ -6606,16 +7035,19 @@
         <v>18</v>
       </c>
       <c r="J143" t="s">
+        <v>18</v>
+      </c>
+      <c r="K143" t="s">
         <v>21</v>
       </c>
-      <c r="K143" t="s">
-        <v>25</v>
-      </c>
       <c r="L143" t="s">
+        <v>25</v>
+      </c>
+      <c r="M143" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>221</v>
       </c>
@@ -6644,16 +7076,19 @@
         <v>18</v>
       </c>
       <c r="J144" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K144" t="s">
         <v>25</v>
       </c>
       <c r="L144" t="s">
+        <v>25</v>
+      </c>
+      <c r="M144" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>222</v>
       </c>
@@ -6682,16 +7117,19 @@
         <v>18</v>
       </c>
       <c r="J145" t="s">
+        <v>18</v>
+      </c>
+      <c r="K145" t="s">
         <v>207</v>
       </c>
-      <c r="K145" t="s">
+      <c r="L145" t="s">
         <v>46</v>
       </c>
-      <c r="L145" t="s">
+      <c r="M145" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>223</v>
       </c>
@@ -6720,16 +7158,19 @@
         <v>18</v>
       </c>
       <c r="J146" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K146" t="s">
+        <v>25</v>
+      </c>
+      <c r="L146" t="s">
         <v>20</v>
       </c>
-      <c r="L146" t="s">
+      <c r="M146" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>224</v>
       </c>
@@ -6758,16 +7199,19 @@
         <v>18</v>
       </c>
       <c r="J147" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K147" t="s">
+        <v>25</v>
+      </c>
+      <c r="L147" t="s">
         <v>29</v>
       </c>
-      <c r="L147" t="s">
+      <c r="M147" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>225</v>
       </c>
@@ -6796,16 +7240,19 @@
         <v>18</v>
       </c>
       <c r="J148" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K148" t="s">
+        <v>25</v>
+      </c>
+      <c r="L148" t="s">
         <v>54</v>
       </c>
-      <c r="L148" t="s">
+      <c r="M148" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>227</v>
       </c>
@@ -6834,16 +7281,19 @@
         <v>18</v>
       </c>
       <c r="J149" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K149" t="s">
         <v>25</v>
       </c>
       <c r="L149" t="s">
+        <v>25</v>
+      </c>
+      <c r="M149" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>228</v>
       </c>
@@ -6872,16 +7322,19 @@
         <v>18</v>
       </c>
       <c r="J150" t="s">
+        <v>18</v>
+      </c>
+      <c r="K150" t="s">
         <v>42</v>
       </c>
-      <c r="K150" t="s">
+      <c r="L150" t="s">
         <v>81</v>
       </c>
-      <c r="L150" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M150" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>229</v>
       </c>
@@ -6910,16 +7363,19 @@
         <v>18</v>
       </c>
       <c r="J151" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K151" t="s">
         <v>25</v>
       </c>
       <c r="L151" t="s">
+        <v>25</v>
+      </c>
+      <c r="M151" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>230</v>
       </c>
@@ -6948,16 +7404,19 @@
         <v>18</v>
       </c>
       <c r="J152" t="s">
+        <v>18</v>
+      </c>
+      <c r="K152" t="s">
         <v>37</v>
       </c>
-      <c r="K152" t="s">
+      <c r="L152" t="s">
         <v>24</v>
       </c>
-      <c r="L152" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M152" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>231</v>
       </c>
@@ -6986,16 +7445,19 @@
         <v>18</v>
       </c>
       <c r="J153" t="s">
+        <v>18</v>
+      </c>
+      <c r="K153" t="s">
         <v>71</v>
       </c>
-      <c r="K153" t="s">
+      <c r="L153" t="s">
         <v>106</v>
       </c>
-      <c r="L153" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M153" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>232</v>
       </c>
@@ -7024,16 +7486,19 @@
         <v>18</v>
       </c>
       <c r="J154" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K154" t="s">
+        <v>25</v>
+      </c>
+      <c r="L154" t="s">
         <v>20</v>
       </c>
-      <c r="L154" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M154" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>233</v>
       </c>
@@ -7062,16 +7527,19 @@
         <v>18</v>
       </c>
       <c r="J155" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K155" t="s">
+        <v>25</v>
+      </c>
+      <c r="L155" t="s">
         <v>20</v>
       </c>
-      <c r="L155" t="s">
+      <c r="M155" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>234</v>
       </c>
@@ -7100,16 +7568,19 @@
         <v>18</v>
       </c>
       <c r="J156" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K156" t="s">
+        <v>25</v>
+      </c>
+      <c r="L156" t="s">
         <v>63</v>
       </c>
-      <c r="L156" t="s">
+      <c r="M156" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>235</v>
       </c>
@@ -7138,16 +7609,19 @@
         <v>18</v>
       </c>
       <c r="J157" t="s">
+        <v>18</v>
+      </c>
+      <c r="K157" t="s">
         <v>37</v>
       </c>
-      <c r="K157" t="s">
+      <c r="L157" t="s">
         <v>46</v>
       </c>
-      <c r="L157" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M157" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>236</v>
       </c>
@@ -7176,16 +7650,19 @@
         <v>18</v>
       </c>
       <c r="J158" t="s">
+        <v>18</v>
+      </c>
+      <c r="K158" t="s">
         <v>237</v>
       </c>
-      <c r="K158" t="s">
-        <v>25</v>
-      </c>
       <c r="L158" t="s">
+        <v>25</v>
+      </c>
+      <c r="M158" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>238</v>
       </c>
@@ -7214,16 +7691,19 @@
         <v>18</v>
       </c>
       <c r="J159" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K159" t="s">
         <v>25</v>
       </c>
       <c r="L159" t="s">
+        <v>25</v>
+      </c>
+      <c r="M159" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>239</v>
       </c>
@@ -7252,16 +7732,19 @@
         <v>18</v>
       </c>
       <c r="J160" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K160" t="s">
+        <v>25</v>
+      </c>
+      <c r="L160" t="s">
         <v>24</v>
       </c>
-      <c r="L160" t="s">
+      <c r="M160" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>240</v>
       </c>
@@ -7290,16 +7773,19 @@
         <v>18</v>
       </c>
       <c r="J161" t="s">
+        <v>18</v>
+      </c>
+      <c r="K161" t="s">
         <v>241</v>
       </c>
-      <c r="K161" t="s">
+      <c r="L161" t="s">
         <v>39</v>
       </c>
-      <c r="L161" t="s">
+      <c r="M161" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>242</v>
       </c>
@@ -7328,16 +7814,19 @@
         <v>18</v>
       </c>
       <c r="J162" t="s">
+        <v>18</v>
+      </c>
+      <c r="K162" t="s">
         <v>130</v>
       </c>
-      <c r="K162" t="s">
+      <c r="L162" t="s">
         <v>81</v>
       </c>
-      <c r="L162" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M162" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>244</v>
       </c>
@@ -7366,16 +7855,19 @@
         <v>18</v>
       </c>
       <c r="J163" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K163" t="s">
+        <v>25</v>
+      </c>
+      <c r="L163" t="s">
         <v>69</v>
       </c>
-      <c r="L163" t="s">
+      <c r="M163" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>245</v>
       </c>
@@ -7404,16 +7896,19 @@
         <v>18</v>
       </c>
       <c r="J164" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K164" t="s">
+        <v>25</v>
+      </c>
+      <c r="L164" t="s">
         <v>24</v>
       </c>
-      <c r="L164" t="s">
+      <c r="M164" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>246</v>
       </c>
@@ -7442,16 +7937,19 @@
         <v>18</v>
       </c>
       <c r="J165" t="s">
+        <v>18</v>
+      </c>
+      <c r="K165" t="s">
         <v>130</v>
       </c>
-      <c r="K165" t="s">
+      <c r="L165" t="s">
         <v>81</v>
       </c>
-      <c r="L165" t="s">
+      <c r="M165" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>247</v>
       </c>
@@ -7480,16 +7978,19 @@
         <v>18</v>
       </c>
       <c r="J166" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K166" t="s">
         <v>25</v>
       </c>
       <c r="L166" t="s">
+        <v>25</v>
+      </c>
+      <c r="M166" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>248</v>
       </c>
@@ -7518,7 +8019,7 @@
         <v>34</v>
       </c>
       <c r="J167" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K167" t="s">
         <v>35</v>
@@ -7526,8 +8027,11 @@
       <c r="L167" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M167" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>249</v>
       </c>
@@ -7556,7 +8060,7 @@
         <v>18</v>
       </c>
       <c r="J168" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K168" t="s">
         <v>25</v>
@@ -7564,8 +8068,11 @@
       <c r="L168" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M168" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>250</v>
       </c>
@@ -7594,16 +8101,19 @@
         <v>18</v>
       </c>
       <c r="J169" t="s">
+        <v>18</v>
+      </c>
+      <c r="K169" t="s">
         <v>19</v>
       </c>
-      <c r="K169" t="s">
-        <v>25</v>
-      </c>
       <c r="L169" t="s">
+        <v>25</v>
+      </c>
+      <c r="M169" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>251</v>
       </c>
@@ -7632,16 +8142,19 @@
         <v>18</v>
       </c>
       <c r="J170" t="s">
+        <v>18</v>
+      </c>
+      <c r="K170" t="s">
         <v>253</v>
       </c>
-      <c r="K170" t="s">
+      <c r="L170" t="s">
         <v>51</v>
       </c>
-      <c r="L170" t="s">
+      <c r="M170" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>255</v>
       </c>
@@ -7670,16 +8183,19 @@
         <v>18</v>
       </c>
       <c r="J171" t="s">
+        <v>18</v>
+      </c>
+      <c r="K171" t="s">
         <v>130</v>
       </c>
-      <c r="K171" t="s">
-        <v>25</v>
-      </c>
       <c r="L171" t="s">
+        <v>25</v>
+      </c>
+      <c r="M171" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>256</v>
       </c>
@@ -7708,16 +8224,19 @@
         <v>18</v>
       </c>
       <c r="J172" t="s">
+        <v>18</v>
+      </c>
+      <c r="K172" t="s">
         <v>117</v>
       </c>
-      <c r="K172" t="s">
+      <c r="L172" t="s">
         <v>118</v>
       </c>
-      <c r="L172" t="s">
+      <c r="M172" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>257</v>
       </c>
@@ -7746,16 +8265,19 @@
         <v>18</v>
       </c>
       <c r="J173" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K173" t="s">
+        <v>25</v>
+      </c>
+      <c r="L173" t="s">
         <v>29</v>
       </c>
-      <c r="L173" t="s">
+      <c r="M173" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>258</v>
       </c>
@@ -7784,7 +8306,7 @@
         <v>34</v>
       </c>
       <c r="J174" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K174" t="s">
         <v>35</v>
@@ -7792,8 +8314,11 @@
       <c r="L174" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M174" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>259</v>
       </c>
@@ -7822,7 +8347,7 @@
         <v>18</v>
       </c>
       <c r="J175" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K175" t="s">
         <v>25</v>
@@ -7830,8 +8355,11 @@
       <c r="L175" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M175" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>260</v>
       </c>
@@ -7860,16 +8388,19 @@
         <v>18</v>
       </c>
       <c r="J176" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K176" t="s">
+        <v>25</v>
+      </c>
+      <c r="L176" t="s">
         <v>24</v>
       </c>
-      <c r="L176" t="s">
+      <c r="M176" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>261</v>
       </c>
@@ -7898,7 +8429,7 @@
         <v>34</v>
       </c>
       <c r="J177" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K177" t="s">
         <v>35</v>
@@ -7906,8 +8437,11 @@
       <c r="L177" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M177" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>262</v>
       </c>
@@ -7936,12 +8470,15 @@
         <v>18</v>
       </c>
       <c r="J178" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K178" t="s">
+        <v>25</v>
+      </c>
+      <c r="L178" t="s">
         <v>54</v>
       </c>
-      <c r="L178" t="s">
+      <c r="M178" t="s">
         <v>61</v>
       </c>
     </row>
